--- a/docs/item.xlsx
+++ b/docs/item.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Item</t>
   </si>
@@ -53,6 +53,37 @@
   </si>
   <si>
     <t>Total cost (VND)</t>
+  </si>
+  <si>
+    <t>https://www.iflight-rc.com/index.php?route=product/product&amp;path=35&amp;product_id=249&amp;limit=100</t>
+  </si>
+  <si>
+    <t>iPower Motor GM6208 150T Brushless Gimbal Motor with AS5048A Encoder</t>
+  </si>
+  <si>
+    <t>$83.99*3</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/tool/BOOSTXL-DRV8320S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8320S Three-Phase Smart Gate Driver (SPI Interface) Evaluation Module
+</t>
+  </si>
+  <si>
+    <t>$79*3</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/tool/MSP-EXP430F5529LP</t>
+  </si>
+  <si>
+    <t>$12.99*3</t>
+  </si>
+  <si>
+    <t>MSP430F5529 USB LaunchPad Evaluation Kit</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -130,54 +161,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -576,143 +616,175 @@
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="1" customWidth="1"/>
     <col min="8" max="1025" width="11.5703125" style="1"/>
+    <col min="1026" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="2">
+        <f>83.99*3</f>
+        <v>251.96999999999997</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5">
+        <f>79*3</f>
+        <v>237</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6">
+        <f>12.99*3</f>
+        <v>38.97</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="19">
+        <f xml:space="preserve"> SUM(F2:F14)</f>
+        <v>527.93999999999994</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
